--- a/user-data-analysis-graphs.xlsx
+++ b/user-data-analysis-graphs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Subject</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>10uL</t>
+  </si>
+  <si>
+    <t>Average</t>
   </si>
 </sst>
 </file>
@@ -141,7 +144,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23175406871609402"/>
+          <c:y val="2.9396320599116194E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -504,11 +514,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="628759024"/>
-        <c:axId val="628756304"/>
+        <c:axId val="5992592"/>
+        <c:axId val="5994224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="628759024"/>
+        <c:axId val="5992592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -612,7 +622,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="628756304"/>
+        <c:crossAx val="5994224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -620,7 +630,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="628756304"/>
+        <c:axId val="5994224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -732,7 +742,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="628759024"/>
+        <c:crossAx val="5992592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1361,15 +1371,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>85724</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1654,10 +1664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1789,6 +1799,27 @@
         <v>18.329999999999998</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <f>AVERAGE(B3:B8)</f>
+        <v>11.924999999999999</v>
+      </c>
+      <c r="C9">
+        <f>AVERAGE(C3:C8)</f>
+        <v>12.954999999999998</v>
+      </c>
+      <c r="D9">
+        <f>AVERAGE(D3:D8)</f>
+        <v>23.64</v>
+      </c>
+      <c r="E9">
+        <f>AVERAGE(E3:E8)</f>
+        <v>29.278333333333336</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
